--- a/Texas/WaterAllocation_TWDB/TWDBwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Texas/WaterAllocation_TWDB/TWDBwr_Allocation Schema Mapping to WaDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\WaterAllocation_TWDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B3A45-74BD-4E73-9FDF-DDCBB4E82E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081BB72E-70C7-4AA2-B114-E616BBA10BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="1" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="313">
   <si>
     <t>Item</t>
   </si>
@@ -384,15 +384,6 @@
     <t>Name of the contact person for the organization.</t>
   </si>
   <si>
-    <t>OrganizationDataMappingURL</t>
-  </si>
-  <si>
-    <t>https://github.com/WSWCWaterDataExchange/WaDE2.0</t>
-  </si>
-  <si>
-    <t>A URL to WaDE GitHub repository page for the provided data.</t>
-  </si>
-  <si>
     <t>OrganizationName</t>
   </si>
   <si>
@@ -960,9 +951,6 @@
     <t>PrimaryWat</t>
   </si>
   <si>
-    <t>https://www.twdb.texas.gov/waterplanning/resources/index.asp</t>
-  </si>
-  <si>
     <t>bill.billingsley@twdb.texas.gov</t>
   </si>
   <si>
@@ -991,6 +979,10 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>Use custom string and add in StateWellN
+https://www3.twdb.texas.gov/apps/waterdatainteractive//GetReports.aspx?Num= + StateWellN + &amp;Type=GWDB</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +992,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,13 +1218,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1770,7 +1755,7 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2082,9 +2067,6 @@
     <xf numFmtId="14" fontId="30" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2094,16 +2076,16 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2475,7 +2457,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2595,7 +2577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2606DDD-D901-4365-BB8D-3E6142C84460}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
@@ -2907,7 +2889,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>30</v>
@@ -2997,10 +2979,10 @@
     </row>
     <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" s="115" t="s">
         <v>309</v>
+      </c>
+      <c r="F12" s="114" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
@@ -3197,7 +3179,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>30</v>
@@ -3506,11 +3488,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3651,7 +3633,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="83" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>30</v>
@@ -3685,8 +3667,8 @@
       <c r="E5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="110" t="s">
-        <v>307</v>
+      <c r="F5" s="109" t="s">
+        <v>303</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>30</v>
@@ -3704,7 +3686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>113</v>
       </c>
@@ -3720,8 +3702,8 @@
       <c r="E6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="105" t="s">
-        <v>309</v>
+      <c r="F6" s="15" t="s">
+        <v>7</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>30</v>
@@ -3755,8 +3737,8 @@
       <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>7</v>
+      <c r="F7" s="108" t="s">
+        <v>304</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>30</v>
@@ -3785,13 +3767,13 @@
         <v>30</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="109" t="s">
-        <v>308</v>
+      <c r="F8" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>30</v>
@@ -3809,7 +3791,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>122</v>
       </c>
@@ -3820,12 +3802,12 @@
         <v>30</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="83" t="s">
         <v>123</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -3838,18 +3820,18 @@
         <v>30</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -3858,10 +3840,10 @@
         <v>30</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="83" t="s">
-        <v>126</v>
+        <v>39</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>30</v>
@@ -3873,51 +3855,19 @@
         <v>30</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="K10" s="46" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="F13" s="54" t="s">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="F12" s="54" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18"/>
@@ -3940,17 +3890,14 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:A24">
-    <sortCondition ref="A16:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:A23">
+    <sortCondition ref="A15:A23"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{DA03D5FA-C150-4C76-8E14-6A0D4E66B49B}"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{DA03D5FA-C150-4C76-8E14-6A0D4E66B49B}"/>
     <hyperlink ref="F4" r:id="rId2" xr:uid="{22B6D7D7-B32B-4E8E-9A61-24C2DE361A3F}"/>
-    <hyperlink ref="F8" r:id="rId3" display="tel:5129360885" xr:uid="{24EA0607-67C0-4CEA-BE25-DFFA249F5987}"/>
+    <hyperlink ref="F7" r:id="rId3" display="tel:5129360885" xr:uid="{24EA0607-67C0-4CEA-BE25-DFFA249F5987}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -4005,7 +3952,7 @@
         <v>24</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>26</v>
@@ -4019,7 +3966,7 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="64" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>29</v>
@@ -4039,7 +3986,7 @@
       <c r="G2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="105" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="70" t="s">
@@ -4049,12 +3996,12 @@
         <v>30</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B3" s="73" t="s">
         <v>71</v>
@@ -4069,26 +4016,26 @@
         <v>30</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G3" s="34"/>
-      <c r="H3" s="107"/>
+      <c r="H3" s="106"/>
       <c r="I3" s="78" t="s">
         <v>30</v>
       </c>
       <c r="J3" s="94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K3" s="71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>30</v>
@@ -4100,25 +4047,25 @@
         <v>30</v>
       </c>
       <c r="F4" s="100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G4" s="100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" s="101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I4" s="78" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="94"/>
       <c r="K4" s="71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="65" t="s">
         <v>71</v>
@@ -4146,12 +4093,12 @@
       </c>
       <c r="J5" s="94"/>
       <c r="K5" s="71" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="64" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B6" s="65" t="s">
         <v>34</v>
@@ -4166,7 +4113,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>30</v>
@@ -4178,15 +4125,15 @@
         <v>30</v>
       </c>
       <c r="J6" s="94" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="64" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>71</v>
@@ -4204,24 +4151,24 @@
         <v>30</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="I7" s="108" t="s">
+        <v>306</v>
+      </c>
+      <c r="I7" s="107" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="64" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8" s="65" t="s">
         <v>71</v>
@@ -4239,24 +4186,24 @@
         <v>30</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="114" t="s">
-        <v>311</v>
+        <v>152</v>
+      </c>
+      <c r="H8" s="113" t="s">
+        <v>307</v>
       </c>
       <c r="I8" s="78" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="94" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K8" s="71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" s="65" t="s">
         <v>34</v>
@@ -4279,14 +4226,14 @@
       <c r="H9" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="108" t="s">
+      <c r="I9" s="107" t="s">
         <v>30</v>
       </c>
       <c r="J9" s="94" t="s">
         <v>40</v>
       </c>
       <c r="K9" s="71" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4377,7 +4324,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>29</v>
@@ -4407,15 +4354,15 @@
         <v>30</v>
       </c>
       <c r="K2" s="46" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>30</v>
@@ -4425,7 +4372,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="76" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G3" s="32"/>
       <c r="H3" s="33"/>
@@ -4433,18 +4380,18 @@
         <v>30</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>45</v>
@@ -4456,28 +4403,28 @@
         <v>39</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" s="51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I4" s="53" t="s">
         <v>30</v>
       </c>
       <c r="J4" s="52"/>
       <c r="K4" s="46" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C5" s="40" t="s">
         <v>45</v>
@@ -4488,8 +4435,8 @@
       <c r="E5" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="111" t="s">
-        <v>312</v>
+      <c r="F5" s="110" t="s">
+        <v>308</v>
       </c>
       <c r="G5" s="27" t="s">
         <v>30</v>
@@ -4501,18 +4448,18 @@
         <v>30</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K5" s="46" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
@@ -4523,7 +4470,7 @@
       <c r="E6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="112" t="s">
+      <c r="F6" s="111" t="s">
         <v>47</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -4537,12 +4484,12 @@
       </c>
       <c r="J6" s="52"/>
       <c r="K6" s="46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>34</v>
@@ -4557,7 +4504,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="84" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>30</v>
@@ -4570,15 +4517,15 @@
       </c>
       <c r="J7" s="52"/>
       <c r="K7" s="46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>30</v>
@@ -4593,22 +4540,22 @@
         <v>30</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I8" s="53" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="52"/>
       <c r="K8" s="46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>44</v>
@@ -4638,15 +4585,15 @@
         <v>4326</v>
       </c>
       <c r="K9" s="46" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -4657,7 +4604,7 @@
       <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="111" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="16" t="s">
@@ -4671,12 +4618,12 @@
       </c>
       <c r="J10" s="52"/>
       <c r="K10" s="46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>71</v>
@@ -4690,7 +4637,7 @@
       <c r="E11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="112" t="s">
+      <c r="F11" s="111" t="s">
         <v>47</v>
       </c>
       <c r="G11" s="16" t="s">
@@ -4704,15 +4651,15 @@
       </c>
       <c r="J11" s="52"/>
       <c r="K11" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>30</v>
@@ -4723,7 +4670,7 @@
       <c r="E12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="112" t="s">
+      <c r="F12" s="111" t="s">
         <v>47</v>
       </c>
       <c r="G12" s="16" t="s">
@@ -4737,15 +4684,15 @@
       </c>
       <c r="J12" s="52"/>
       <c r="K12" s="46" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>30</v>
@@ -4756,7 +4703,7 @@
       <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="111" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="16" t="s">
@@ -4770,15 +4717,15 @@
       </c>
       <c r="J13" s="52"/>
       <c r="K13" s="46" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>30</v>
@@ -4793,10 +4740,10 @@
         <v>30</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I14" s="53" t="s">
         <v>30</v>
@@ -4805,15 +4752,15 @@
         <v>40.424861522</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>30</v>
@@ -4828,10 +4775,10 @@
         <v>30</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I15" s="53" t="s">
         <v>30</v>
@@ -4840,12 +4787,12 @@
         <v>-112.426748144</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>44</v>
@@ -4859,7 +4806,7 @@
       <c r="E16" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="111" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="16" t="s">
@@ -4873,12 +4820,12 @@
       </c>
       <c r="J16" s="52"/>
       <c r="K16" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" s="39" t="s">
         <v>44</v>
@@ -4892,7 +4839,7 @@
       <c r="E17" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="112" t="s">
+      <c r="F17" s="111" t="s">
         <v>47</v>
       </c>
       <c r="G17" s="16" t="s">
@@ -4906,12 +4853,12 @@
       </c>
       <c r="J17" s="52"/>
       <c r="K17" s="46" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>44</v>
@@ -4926,7 +4873,7 @@
         <v>30</v>
       </c>
       <c r="F18" s="103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>30</v>
@@ -4938,50 +4885,50 @@
         <v>30</v>
       </c>
       <c r="J18" s="52" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" s="46" t="s">
         <v>196</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>198</v>
-      </c>
-      <c r="K19" s="46" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B20" s="39" t="s">
         <v>44</v>
@@ -4999,27 +4946,27 @@
         <v>30</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H20" s="35" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I20" s="53" t="s">
         <v>30</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="38" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>30</v>
@@ -5031,25 +4978,25 @@
         <v>30</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H21" s="51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I21" s="53" t="s">
         <v>30</v>
       </c>
       <c r="J21" s="52"/>
       <c r="K21" s="46" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B22" s="39" t="s">
         <v>34</v>
@@ -5067,27 +5014,27 @@
         <v>30</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="114" t="s">
-        <v>300</v>
+        <v>152</v>
+      </c>
+      <c r="H22" s="113" t="s">
+        <v>297</v>
       </c>
       <c r="I22" s="53" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="52" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K22" s="46" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="45" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="38" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>30</v>
@@ -5114,12 +5061,12 @@
         <v>5</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B24" s="39" t="s">
         <v>71</v>
@@ -5133,7 +5080,7 @@
       <c r="E24" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="112" t="s">
+      <c r="F24" s="111" t="s">
         <v>47</v>
       </c>
       <c r="G24" s="16" t="s">
@@ -5147,7 +5094,7 @@
       </c>
       <c r="J24" s="52"/>
       <c r="K24" s="46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.3">
@@ -5182,8 +5129,8 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5239,7 +5186,7 @@
     </row>
     <row r="2" spans="1:11" s="86" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B2" s="87" t="s">
         <v>29</v>
@@ -5263,7 +5210,7 @@
         <v>30</v>
       </c>
       <c r="K2" s="71" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="86" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5333,12 +5280,12 @@
         <v>30</v>
       </c>
       <c r="K4" s="71" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="86" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="86" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B5" s="87" t="s">
         <v>29</v>
@@ -5368,7 +5315,7 @@
         <v>30</v>
       </c>
       <c r="K5" s="71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.3">
@@ -5408,7 +5355,7 @@
     </row>
     <row r="7" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B7" s="87" t="s">
         <v>71</v>
@@ -5422,8 +5369,8 @@
       <c r="E7" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="111" t="s">
-        <v>302</v>
+      <c r="F7" s="110" t="s">
+        <v>299</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="35"/>
@@ -5431,10 +5378,10 @@
         <v>30</v>
       </c>
       <c r="J7" s="94" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K7" s="71" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.2">
@@ -5442,7 +5389,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C8" s="88" t="s">
         <v>30</v>
@@ -5453,7 +5400,7 @@
       <c r="E8" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="110" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="27"/>
@@ -5473,7 +5420,7 @@
         <v>103</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C9" s="66" t="s">
         <v>30</v>
@@ -5484,7 +5431,7 @@
       <c r="E9" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="111" t="s">
+      <c r="F9" s="110" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="18"/>
@@ -5501,10 +5448,10 @@
     </row>
     <row r="10" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A10" s="64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C10" s="87" t="s">
         <v>45</v>
@@ -5515,8 +5462,8 @@
       <c r="E10" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="111" t="s">
-        <v>161</v>
+      <c r="F10" s="110" t="s">
+        <v>158</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="19"/>
@@ -5524,10 +5471,10 @@
         <v>30</v>
       </c>
       <c r="J10" s="94" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -5535,7 +5482,7 @@
         <v>70</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C11" s="74" t="s">
         <v>30</v>
@@ -5563,7 +5510,7 @@
     </row>
     <row r="12" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="95" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B12" s="87" t="s">
         <v>29</v>
@@ -5587,15 +5534,15 @@
       </c>
       <c r="J12" s="94"/>
       <c r="K12" s="71" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="95" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C13" s="88" t="s">
         <v>30</v>
@@ -5616,15 +5563,15 @@
       </c>
       <c r="J13" s="94"/>
       <c r="K13" s="71" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="95" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B14" s="87" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C14" s="88" t="s">
         <v>30</v>
@@ -5645,12 +5592,12 @@
       </c>
       <c r="J14" s="94"/>
       <c r="K14" s="71" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="95" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B15" s="87" t="s">
         <v>71</v>
@@ -5673,15 +5620,15 @@
         <v>30</v>
       </c>
       <c r="J15" s="94" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K15" s="71" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B16" s="87" t="s">
         <v>34</v>
@@ -5705,12 +5652,12 @@
       </c>
       <c r="J16" s="94"/>
       <c r="K16" s="71" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="95" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B17" s="87" t="s">
         <v>71</v>
@@ -5734,15 +5681,15 @@
       </c>
       <c r="J17" s="94"/>
       <c r="K17" s="71" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="95" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18" s="88" t="s">
         <v>30</v>
@@ -5763,12 +5710,12 @@
       </c>
       <c r="J18" s="94"/>
       <c r="K18" s="71" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B19" s="87" t="s">
         <v>29</v>
@@ -5792,15 +5739,15 @@
       </c>
       <c r="J19" s="94"/>
       <c r="K19" s="71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="95" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C20" s="88" t="s">
         <v>30</v>
@@ -5823,12 +5770,12 @@
         <v>2.5</v>
       </c>
       <c r="K20" s="71" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="95" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B21" s="87" t="s">
         <v>71</v>
@@ -5851,15 +5798,15 @@
         <v>30</v>
       </c>
       <c r="J21" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K21" s="71" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="95" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B22" s="87" t="s">
         <v>71</v>
@@ -5875,27 +5822,27 @@
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="H22" s="113" t="s">
-        <v>301</v>
+        <v>152</v>
+      </c>
+      <c r="H22" s="112" t="s">
+        <v>298</v>
       </c>
       <c r="I22" s="93" t="s">
         <v>30</v>
       </c>
       <c r="J22" s="94" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K22" s="71" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="31.8" x14ac:dyDescent="0.3">
       <c r="A23" s="95" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C23" s="87" t="s">
         <v>45</v>
@@ -5907,24 +5854,24 @@
         <v>30</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I23" s="93" t="s">
         <v>30</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K23" s="71" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="95" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B24" s="87" t="s">
         <v>29</v>
@@ -5947,18 +5894,18 @@
         <v>30</v>
       </c>
       <c r="J24" s="94" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K24" s="71" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="97" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="95" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C25" s="88" t="s">
         <v>30</v>
@@ -5979,15 +5926,15 @@
       </c>
       <c r="J25" s="94"/>
       <c r="K25" s="71" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="95" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B26" s="87" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C26" s="88" t="s">
         <v>30</v>
@@ -6008,12 +5955,12 @@
       </c>
       <c r="J26" s="94"/>
       <c r="K26" s="71" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="95" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B27" s="87" t="s">
         <v>71</v>
@@ -6037,15 +5984,15 @@
       </c>
       <c r="J27" s="94"/>
       <c r="K27" s="71" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="95" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C28" s="88" t="s">
         <v>30</v>
@@ -6068,12 +6015,12 @@
         <v>500</v>
       </c>
       <c r="K28" s="71" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="98" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B29" s="87" t="s">
         <v>71</v>
@@ -6088,24 +6035,24 @@
         <v>30</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I29" s="93" t="s">
         <v>30</v>
       </c>
       <c r="J29" s="94" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K29" s="71" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="95" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B30" s="87" t="s">
         <v>71</v>
@@ -6129,12 +6076,12 @@
       </c>
       <c r="J30" s="94"/>
       <c r="K30" s="71" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="95" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B31" s="87" t="s">
         <v>34</v>
@@ -6158,12 +6105,12 @@
       </c>
       <c r="J31" s="94"/>
       <c r="K31" s="71" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="95" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B32" s="87" t="s">
         <v>34</v>
@@ -6187,12 +6134,12 @@
       </c>
       <c r="J32" s="94"/>
       <c r="K32" s="71" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="95" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B33" s="87" t="s">
         <v>29</v>
@@ -6215,15 +6162,15 @@
         <v>30</v>
       </c>
       <c r="J33" s="99" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K33" s="71" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="95" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B34" s="87" t="s">
         <v>34</v>
@@ -6247,15 +6194,15 @@
       </c>
       <c r="J34" s="94"/>
       <c r="K34" s="71" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="95" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B35" s="87" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C35" s="88" t="s">
         <v>30</v>
@@ -6278,15 +6225,15 @@
         <v>0</v>
       </c>
       <c r="K35" s="71" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B36" s="87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C36" s="88" t="s">
         <v>30</v>
@@ -6307,15 +6254,15 @@
       </c>
       <c r="J36" s="94"/>
       <c r="K36" s="71" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="95" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B37" s="87" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C37" s="88" t="s">
         <v>30</v>
@@ -6336,12 +6283,12 @@
       </c>
       <c r="J37" s="94"/>
       <c r="K37" s="71" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="95" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B38" s="87" t="s">
         <v>34</v>
@@ -6365,12 +6312,12 @@
       </c>
       <c r="J38" s="94"/>
       <c r="K38" s="71" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="95" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B39" s="87" t="s">
         <v>71</v>
@@ -6394,12 +6341,12 @@
       </c>
       <c r="J39" s="94"/>
       <c r="K39" s="71" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="86" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A40" s="86" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B40" s="87" t="s">
         <v>71</v>
@@ -6414,27 +6361,27 @@
         <v>39</v>
       </c>
       <c r="F40" s="100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G40" s="100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H40" s="101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I40" s="93" t="s">
         <v>30</v>
       </c>
       <c r="J40" s="94" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K40" s="71" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="95" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B41" s="87" t="s">
         <v>29</v>
@@ -6458,12 +6405,12 @@
       </c>
       <c r="J41" s="94"/>
       <c r="K41" s="71" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="95" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B42" s="87" t="s">
         <v>44</v>
@@ -6490,7 +6437,7 @@
     </row>
     <row r="43" spans="1:11" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="95" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B43" s="87" t="s">
         <v>34</v>
@@ -6505,27 +6452,27 @@
         <v>39</v>
       </c>
       <c r="F43" s="100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G43" s="100" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H43" s="101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I43" s="93" t="s">
         <v>30</v>
       </c>
       <c r="J43" s="94" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K43" s="71" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="95" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B44" s="87" t="s">
         <v>34</v>
@@ -6549,12 +6496,12 @@
       </c>
       <c r="J44" s="94"/>
       <c r="K44" s="71" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="24" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="95" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B45" s="87" t="s">
         <v>71</v>
@@ -6569,18 +6516,22 @@
         <v>30</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="35"/>
+        <v>312</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>30</v>
+      </c>
       <c r="I45" s="93" t="s">
         <v>30</v>
       </c>
       <c r="J45" s="94" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="K45" s="71" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">

--- a/Texas/WaterAllocation_TWDB/TWDBwr_Allocation Schema Mapping to WaDE.xlsx
+++ b/Texas/WaterAllocation_TWDB/TWDBwr_Allocation Schema Mapping to WaDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Texas\WaterAllocation_TWDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081BB72E-70C7-4AA2-B114-E616BBA10BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9707B411-3878-4913-97DB-A11745CE6B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="3" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-28920" yWindow="2475" windowWidth="29040" windowHeight="15720" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="315">
   <si>
     <t>Item</t>
   </si>
@@ -983,6 +983,12 @@
   <si>
     <t>Use custom string and add in StateWellN
 https://www3.twdb.texas.gov/apps/waterdatainteractive//GetReports.aspx?Num= + StateWellN + &amp;Type=GWDB</t>
+  </si>
+  <si>
+    <t>AllocationType = Rules of Capture</t>
+  </si>
+  <si>
+    <t>Rules of Capture</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1761,7 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2096,6 +2102,9 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2157,9 +2166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2197,7 +2206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2303,7 +2312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2445,7 +2454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2457,7 +2466,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2538,6 +2547,9 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="57" t="s">
         <v>16</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>313</v>
       </c>
       <c r="C8" s="58"/>
     </row>
@@ -3490,7 +3502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8BA2FE-2555-4166-A4DF-0203EE1C77D7}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
@@ -5128,9 +5140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5974,8 +5986,8 @@
       <c r="E27" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="96" t="s">
-        <v>46</v>
+      <c r="F27" s="115" t="s">
+        <v>314</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="19"/>
